--- a/LF/TAS/Guinee Bissau/2023/gw_lf_tas1_202310_2_partcipants.xlsx
+++ b/LF/TAS/Guinee Bissau/2023/gw_lf_tas1_202310_2_partcipants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Guinee Bissau\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B32F8C-3C5E-47B6-99E6-8AD833C9738A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23743DF-A0CD-4D31-955A-1641600CD5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>type</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>Escreva este código nos adesivos do FTS</t>
-  </si>
-  <si>
-    <t>calculate</t>
   </si>
   <si>
     <t xml:space="preserve">if(${last-saved#p_index}!=null,${last-saved#p_index} + 1,1)
@@ -716,10 +713,10 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -815,10 +812,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="13"/>
@@ -841,7 +838,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="13"/>
@@ -864,7 +861,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="13"/>
@@ -887,7 +884,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="18"/>
       <c r="G6" s="18"/>
@@ -1006,7 +1003,7 @@
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" ht="31.5">
       <c r="A11" s="13" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>64</v>
@@ -1022,7 +1019,7 @@
         <v>30</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>19</v>
@@ -1053,7 +1050,7 @@
         <v>30</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>19</v>

--- a/LF/TAS/Guinee Bissau/2023/gw_lf_tas1_202310_2_partcipants.xlsx
+++ b/LF/TAS/Guinee Bissau/2023/gw_lf_tas1_202310_2_partcipants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Guinee Bissau\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23743DF-A0CD-4D31-955A-1641600CD5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CC58D5-981A-49BD-BF73-CBA590089F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -210,12 +210,6 @@
     <t>Portuguese</t>
   </si>
   <si>
-    <t>gw_lf_tas1_202310_2_partcipants</t>
-  </si>
-  <si>
-    <t>(2023 Oct) 2. TAS1 FL - Formulário de participantes</t>
-  </si>
-  <si>
     <t>p_index</t>
   </si>
   <si>
@@ -251,6 +245,12 @@
   </si>
   <si>
     <t>concat(${p_recorderID}, '-', ${p_cluster_id}, '-', ${p_index})</t>
+  </si>
+  <si>
+    <t>(Jan 2024) 2. TAS1 FL - Formulário de participantes</t>
+  </si>
+  <si>
+    <t>gw_lf_tas1_202402_2_partcipants</t>
   </si>
 </sst>
 </file>
@@ -713,10 +713,10 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -812,10 +812,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="13"/>
@@ -838,7 +838,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="13"/>
@@ -861,7 +861,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="13"/>
@@ -884,7 +884,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" s="18"/>
       <c r="G6" s="18"/>
@@ -1006,10 +1006,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="13"/>
@@ -1019,7 +1019,7 @@
         <v>30</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>19</v>
@@ -1035,13 +1035,13 @@
         <v>20</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1050,7 +1050,7 @@
         <v>30</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>19</v>
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1257,10 +1257,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>61</v>

--- a/LF/TAS/Guinee Bissau/2023/gw_lf_tas1_202310_2_partcipants.xlsx
+++ b/LF/TAS/Guinee Bissau/2023/gw_lf_tas1_202310_2_partcipants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Guinee Bissau\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CC58D5-981A-49BD-BF73-CBA590089F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E6EA43-7E2A-4123-B422-6D83C22D934E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
   <si>
     <t>type</t>
   </si>
@@ -210,12 +210,6 @@
     <t>Portuguese</t>
   </si>
   <si>
-    <t>p_index</t>
-  </si>
-  <si>
-    <t>Index in village</t>
-  </si>
-  <si>
     <t>p_code_id</t>
   </si>
   <si>
@@ -225,10 +219,6 @@
     <t>Escreva este código nos adesivos do FTS</t>
   </si>
   <si>
-    <t xml:space="preserve">if(${last-saved#p_index}!=null,${last-saved#p_index} + 1,1)
-</t>
-  </si>
-  <si>
     <t>Selecione a UA</t>
   </si>
   <si>
@@ -244,20 +234,59 @@
     <t>p_eu</t>
   </si>
   <si>
-    <t>concat(${p_recorderID}, '-', ${p_cluster_id}, '-', ${p_index})</t>
-  </si>
-  <si>
-    <t>(Jan 2024) 2. TAS1 FL - Formulário de participantes</t>
-  </si>
-  <si>
-    <t>gw_lf_tas1_202402_2_partcipants</t>
+    <t>(Jan 2024) 2. TAS1 FL - Formulário de participantes V2</t>
+  </si>
+  <si>
+    <t>gw_lf_tas1_202402_2_partcipants_v2</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>begin repeat</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>position(..)</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>gw_p_202401_v21</t>
+  </si>
+  <si>
+    <t>join(' ', ${p_code_id})</t>
+  </si>
+  <si>
+    <t>if (${C2} = 1,'',substring-after(${C1},${p_code_id}))</t>
+  </si>
+  <si>
+    <t>not(selected(${C3}, ${p_code_id}))</t>
+  </si>
+  <si>
+    <t>O índice deve ser utilizado apenas uma vez na escola/aldeia</t>
+  </si>
+  <si>
+    <t>end repeat</t>
+  </si>
+  <si>
+    <t>barcode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -307,8 +336,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,8 +356,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -375,11 +428,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -429,6 +497,41 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,13 +813,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD10"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -812,10 +915,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="13"/>
@@ -838,7 +941,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="13"/>
@@ -861,7 +964,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="13"/>
@@ -884,7 +987,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D6" s="18"/>
       <c r="G6" s="18"/>
@@ -896,233 +999,299 @@
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="1:13" s="11" customFormat="1">
+      <c r="A8" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="1:13" s="11" customFormat="1">
+      <c r="A9" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="23"/>
+    </row>
+    <row r="10" spans="1:13" s="11" customFormat="1">
+      <c r="A10" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="23"/>
+    </row>
+    <row r="11" spans="1:13" s="11" customFormat="1">
+      <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" s="11" customFormat="1">
-      <c r="A8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" s="11" customFormat="1" ht="31.5">
-      <c r="A10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" s="11" customFormat="1" ht="31.5">
-      <c r="A11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>63</v>
-      </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="13"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>67</v>
-      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1">
       <c r="A12" s="13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>73</v>
-      </c>
+      <c r="I12" s="14"/>
       <c r="J12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" s="11" customFormat="1">
-      <c r="A13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" s="11" customFormat="1">
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" s="11" customFormat="1" ht="31.5">
       <c r="A14" s="13" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="D14" s="15"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="J14" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" s="11" customFormat="1" ht="31.5">
       <c r="A15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" s="11" customFormat="1">
+      <c r="A16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:13" customFormat="1">
+      <c r="A17" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+    </row>
+    <row r="18" spans="1:13" s="11" customFormat="1">
+      <c r="A18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B19" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1257,10 +1426,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>61</v>
